--- a/NeuralNetworks.Tests/MultilayerPerceptronTests/MultilayerPerceptronTests.xlsx
+++ b/NeuralNetworks.Tests/MultilayerPerceptronTests/MultilayerPerceptronTests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Inputs</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Error function: Cross-Entropy. Hidden layer activation: tahn. Output layer activation: softmax.</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>j -&gt;</t>
   </si>
 </sst>
 </file>
@@ -597,7 +603,7 @@
   <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="O20" sqref="O20:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E33" s="7" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="L34" s="18"/>
       <c r="R34" s="7" t="s">
         <v>14</v>
@@ -1238,10 +1244,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="L35" s="18"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>1</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>-0.56172916046612553</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>0</v>
       </c>
@@ -1358,7 +1370,7 @@
         <v>0.56172916046612542</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="13" t="s">
         <v>1</v>
@@ -1371,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C40" s="13" t="s">
         <v>30</v>
       </c>
@@ -1394,7 +1406,7 @@
         <v>new[] {-0.390542035775992,-0.44184361704256,-0.561729160466126,0.390542035775992,0.44184361704256,0.561729160466125};</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C41" s="13" t="s">
         <v>2</v>
       </c>
@@ -1403,7 +1415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <f t="array" ref="B42:C42">TRANSPOSE(C37:C38)</f>
         <v>-0.55090941985159114</v>
@@ -1437,8 +1449,12 @@
         <f t="array" ref="X42:X44">TRANSPOSE(N42:P42)</f>
         <v>2.9020492344504514E-2</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA42" s="5">
+        <f>X42*S14</f>
+        <v>1.1608196937801806E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1446,8 +1462,12 @@
       <c r="X43" s="5">
         <v>2.1418483544078208E-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA43" s="5">
+        <f>X43*S15</f>
+        <v>1.0709241772039104E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <f t="array" ref="B44:C47">TRANSPOSE(F44:I45)</f>
         <v>0.3547405972689745</v>
@@ -1486,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>0.36038907822702954</v>
       </c>
@@ -1537,7 +1557,7 @@
         <v>2.9020492344504514E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>0.36580100157727258</v>
       </c>
@@ -1571,7 +1591,7 @@
         <v>2.1418483544078208E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>0</v>
       </c>
@@ -1596,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="F48" s="17">
         <f>SUMPRODUCT($B$42:$C$42,$B44:$C44)*F$32</f>
         <v>4.8857484159814451E-3</v>
